--- a/员工归档/工作输出/屈圣冰/分班册/一对一/牟恒槿.xlsx
+++ b/员工归档/工作输出/屈圣冰/分班册/一对一/牟恒槿.xlsx
@@ -300,13 +300,13 @@
     <t>14:00~14:40</t>
   </si>
   <si>
+    <t>物理</t>
+  </si>
+  <si>
     <t>14:50~15:30</t>
   </si>
   <si>
     <t>15:40~16:20</t>
-  </si>
-  <si>
-    <t>物理</t>
   </si>
   <si>
     <t>16:30~17:10</t>
@@ -317,10 +317,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -358,6 +358,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -365,19 +381,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -388,9 +410,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,28 +449,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -443,38 +458,31 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -488,15 +496,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,187 +511,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -816,26 +816,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -855,17 +861,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -880,39 +913,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -921,145 +921,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1089,10 +1089,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1537,41 +1537,41 @@
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:8">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>14</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:8">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="15" t="s">
@@ -1581,13 +1581,13 @@
       <c r="H4" s="17"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="16"/>
       <c r="D5" s="17"/>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="15"/>
@@ -1595,58 +1595,58 @@
       <c r="H5" s="17"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>31</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:8">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>218</v>
       </c>
       <c r="C7" s="20"/>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="9"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" customHeight="1" spans="1:8">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="15" t="s">
@@ -1663,8 +1663,8 @@
       <c r="H8" s="17"/>
     </row>
     <row r="9" customHeight="1" spans="1:8">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="15" t="s">
@@ -1679,8 +1679,8 @@
       <c r="H9" s="17"/>
     </row>
     <row r="10" customHeight="1" spans="1:8">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="15" t="s">
@@ -1713,184 +1713,184 @@
       <c r="H11" s="22"/>
     </row>
     <row r="12" customHeight="1" spans="1:8">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" customHeight="1" spans="1:8">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" customHeight="1" spans="1:8">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" customHeight="1" spans="1:8">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" customHeight="1" spans="1:8">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
     </row>
     <row r="17" customHeight="1" spans="1:8">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" customHeight="1" spans="1:8">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" customHeight="1" spans="1:8">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" customHeight="1" spans="1:8">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9" t="s">
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" customHeight="1" spans="1:8">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="8">
         <v>96</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9" t="s">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" customHeight="1" spans="1:8">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9" t="s">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9" t="s">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" customHeight="1" spans="1:8">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9" t="s">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9" t="s">
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" customHeight="1" spans="1:8">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9" t="s">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9" t="s">
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
     </row>
     <row r="25" customHeight="1" spans="1:8">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
     </row>
     <row r="26" customHeight="1" spans="1:8">
       <c r="A26" s="15"/>
@@ -1918,10 +1918,10 @@
       <c r="A28" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>61</v>
       </c>
       <c r="D28" s="15" t="s">
@@ -2120,13 +2120,14 @@
   <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1"/>
   <cols>
-    <col min="1" max="12" width="10.625" customWidth="1"/>
-    <col min="13" max="16" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="16" width="10.625" customWidth="1"/>
     <col min="17" max="18" width="10.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2475,152 +2476,152 @@
       <c r="B9" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
+      <c r="C9" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="10" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
+        <v>95</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="11" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="N11" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="O11" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="P11" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q11" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="R11" s="9" t="s">
-        <v>96</v>
-      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
     </row>
     <row r="12" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>96</v>
-      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
